--- a/Uncertainties_Dynamic_Planning/plot_distribution_lognormal_mu1_sigma1/R100/Intermodal_EGS_data_dynamic_lognormal_mu1_sigma1_table63.xlsx
+++ b/Uncertainties_Dynamic_Planning/plot_distribution_lognormal_mu1_sigma1/R100/Intermodal_EGS_data_dynamic_lognormal_mu1_sigma1_table63.xlsx
@@ -8102,7 +8102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8169,7 +8169,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[14, 19]</t>
+          <t>[14, 17]</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -8198,7 +8198,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[14, 19]</t>
+          <t>[14, 17]</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -8223,15 +8223,15 @@
         <v>-1</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[20, 21]</t>
+          <t>[71, 81]</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -8252,15 +8252,15 @@
         <v>-1</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[20, 21]</t>
+          <t>[71, 81]</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -8281,15 +8281,15 @@
         <v>-1</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[121, 139]</t>
+          <t>[87, 90]</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -8310,15 +8310,15 @@
         <v>-1</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[121, 139]</t>
+          <t>[87, 90]</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -8339,15 +8339,15 @@
         <v>-1</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[149, 151]</t>
+          <t>[99, 102]</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -8368,14 +8368,72 @@
         <v>-1</v>
       </c>
       <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>[99, 102]</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>congestion</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E10" t="n">
         <v>8</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>[149, 151]</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>[149, 154]</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>congestion_finish</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>[149, 154]</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>1</v>
       </c>
     </row>
